--- a/public/download/actualisation/HAZ-donnees-branches-2018_actualisation-2021.xlsx
+++ b/public/download/actualisation/HAZ-donnees-branches-2018_actualisation-2021.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="320">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="322">
   <si>
     <t>EMPREINTE DES COMPTES DE PRODUCTION PAR BRANCHE</t>
   </si>
@@ -514,406 +514,412 @@
     <t xml:space="preserve">26002</t>
   </si>
   <si>
+    <t xml:space="preserve">32,4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33,5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FABRICATION D ÉQUIPEMENTS ÉLECTRIQUES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CJ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20965</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25,6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26,4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FABRICATION DE MACHINES ET ÉQUIPEMENTS N.C.A.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38405</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24,6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25,4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FABRICATION DE MATÉRIELS DE TRANSPORT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">144733</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27,3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AUTRES INDUSTRIES MANUFACTURIÈRES ; RÉPARATION ET INSTALLATION DE MACHINES ET D'ÉQUIPEMENTS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">74608</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PRODUCTION ET DISTRIBUTION D'ÉLECTRICITÉ, DE GAZ, DE VAPEUR ET D'AIR CONDITIONNÉ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">124778</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27,9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PRODUCTION ET DISTRIBUTION D'EAU ; ASSAINISSEMENT, GESTION DES DÉCHETS ET DÉPOLLUTION</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39410</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25,8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26,6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CONSTRUCTION</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">297843</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22,2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22,9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">COMMERCE ; RÉPARATION D'AUTOMOBILES ET DE MOTOCYCLES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">442412</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TRANSPORTS ET ENTREPOSAGE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">215507</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HÉBERGEMENT ET RESTAURATION</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">114779</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22,7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ÉDITION, AUDIOVISUEL ET DIFFUSION</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">56839</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26,5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27,4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TÉLÉCOMMUNICATIONS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">54383</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25,5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26,3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ACTIVITÉS INFORMATIQUES ET SERVICES D'INFORMATION</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">100800</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24,5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ACTIVITÉS FINANCIÈRES ET D'ASSURANCE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">230165</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23,8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ACTIVITÉS IMMOBILIÈRES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">325984</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ACTIVITÉS JURIDIQUES, COMPTABLES, DE GESTION, D'ARCHITECTURE, D'INGÉNIERIE, DE CONTRÔLE ET D'ANALYSES TECHNIQUES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">256689</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RECHERCHE-DÉVELOPPEMENT SCIENTIFIQUE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">67110</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28,2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29,1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AUTRES ACTIVITÉS SPÉCIALISÉES, SCIENTIFIQUES ET TECHNIQUES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36515</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ACTIVITÉS DE SERVICES ADMINISTRATIFS ET DE SOUTIEN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">210564</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23,6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ADMINISTRATION PUBLIQUE ET DÉFENSE - SÉCURITÉ SOCIALE OBLIGATOIRE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">224402</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ENSEIGNEMENT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">138012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21,1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21,8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ACTIVITÉS POUR LA SANTÉ HUMAINE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">QA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">170344</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21,7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HÉBERGEMENT MÉDICO-SOCIAL ET SOCIAL ET ACTION SOCIALE SANS HÉBERGEMENT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">QB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">85537</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20,9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21,6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ARTS, SPECTACLES ET ACTIVITÉS RÉCRÉATIVES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">55003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AUTRES ACTIVITÉS DE SERVICES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">45932</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ACTIVITÉS DES MÉNAGES EN TANT QU'EMPLOYEURS ; ACTIVITÉS INDIFFÉRENCIÉES DES MÉNAGES EN TANT QUE PRODUCTEURS DE BIENS ET SERVICES POUR USAGE PROPRE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1570</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18,1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18,7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TOTAL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4185684</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(1) en millions d'euros courants</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(2) en gramme(s) par euro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PRODUITS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">92131</t>
+  </si>
+  <si>
+    <t xml:space="preserve">46079</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29,5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30,5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">217841</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23,5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24,3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">56600</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23,2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">50770</t>
+  </si>
+  <si>
+    <t xml:space="preserve">63598</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28,9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">112677</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26,2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">53523</t>
+  </si>
+  <si>
+    <t xml:space="preserve">81954</t>
+  </si>
+  <si>
+    <t xml:space="preserve">129235</t>
+  </si>
+  <si>
+    <t xml:space="preserve">74079</t>
+  </si>
+  <si>
     <t xml:space="preserve">32,5</t>
   </si>
   <si>
     <t xml:space="preserve">33,6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FABRICATION D ÉQUIPEMENTS ÉLECTRIQUES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CJ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20965</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25,6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26,4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FABRICATION DE MACHINES ET ÉQUIPEMENTS N.C.A.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CK</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38405</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24,6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25,4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FABRICATION DE MATÉRIELS DE TRANSPORT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">144733</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27,3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AUTRES INDUSTRIES MANUFACTURIÈRES ; RÉPARATION ET INSTALLATION DE MACHINES ET D'ÉQUIPEMENTS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">74608</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PRODUCTION ET DISTRIBUTION D'ÉLECTRICITÉ, DE GAZ, DE VAPEUR ET D'AIR CONDITIONNÉ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DZ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">124778</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27,9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PRODUCTION ET DISTRIBUTION D'EAU ; ASSAINISSEMENT, GESTION DES DÉCHETS ET DÉPOLLUTION</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EZ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39410</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25,8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26,6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CONSTRUCTION</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FZ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">297843</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22,2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22,9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">COMMERCE ; RÉPARATION D'AUTOMOBILES ET DE MOTOCYCLES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GZ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">442412</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TRANSPORTS ET ENTREPOSAGE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HZ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">215507</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HÉBERGEMENT ET RESTAURATION</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IZ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">114779</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22,7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ÉDITION, AUDIOVISUEL ET DIFFUSION</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">56839</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26,5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27,4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TÉLÉCOMMUNICATIONS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">54383</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25,5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26,3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ACTIVITÉS INFORMATIQUES ET SERVICES D'INFORMATION</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">100800</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24,5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ACTIVITÉS FINANCIÈRES ET D'ASSURANCE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KZ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">230165</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23,8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ACTIVITÉS IMMOBILIÈRES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LZ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">325984</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ACTIVITÉS JURIDIQUES, COMPTABLES, DE GESTION, D'ARCHITECTURE, D'INGÉNIERIE, DE CONTRÔLE ET D'ANALYSES TECHNIQUES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">256689</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RECHERCHE-DÉVELOPPEMENT SCIENTIFIQUE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">67110</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28,2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29,1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AUTRES ACTIVITÉS SPÉCIALISÉES, SCIENTIFIQUES ET TECHNIQUES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36515</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ACTIVITÉS DE SERVICES ADMINISTRATIFS ET DE SOUTIEN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NZ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">210564</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23,6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ADMINISTRATION PUBLIQUE ET DÉFENSE - SÉCURITÉ SOCIALE OBLIGATOIRE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OZ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">224402</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ENSEIGNEMENT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PZ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">138012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21,1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21,8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ACTIVITÉS POUR LA SANTÉ HUMAINE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">QA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">170344</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21,7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HÉBERGEMENT MÉDICO-SOCIAL ET SOCIAL ET ACTION SOCIALE SANS HÉBERGEMENT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">QB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">85537</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20,9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21,6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ARTS, SPECTACLES ET ACTIVITÉS RÉCRÉATIVES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RZ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">55003</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AUTRES ACTIVITÉS DE SERVICES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SZ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">45932</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ACTIVITÉS DES MÉNAGES EN TANT QU'EMPLOYEURS ; ACTIVITÉS INDIFFÉRENCIÉES DES MÉNAGES EN TANT QUE PRODUCTEURS DE BIENS ET SERVICES POUR USAGE PROPRE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TZ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1570</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18,1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18,7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TOTAL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4185684</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(1) en millions d'euros courants</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(2) en gramme(s) par euro</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PRODUITS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">92131</t>
-  </si>
-  <si>
-    <t xml:space="preserve">46079</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29,5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30,5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">217841</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23,5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24,3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">56600</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23,2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">50770</t>
-  </si>
-  <si>
-    <t xml:space="preserve">63598</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28,9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">112677</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26,2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">53523</t>
-  </si>
-  <si>
-    <t xml:space="preserve">81954</t>
-  </si>
-  <si>
-    <t xml:space="preserve">129235</t>
-  </si>
-  <si>
-    <t xml:space="preserve">74079</t>
   </si>
   <si>
     <t xml:space="preserve">49593</t>
@@ -2808,10 +2814,10 @@
         <v>283</v>
       </c>
       <c r="D16" s="27" t="s">
-        <v>150</v>
+        <v>284</v>
       </c>
       <c r="E16" s="28" t="s">
-        <v>151</v>
+        <v>285</v>
       </c>
       <c r="F16"/>
       <c r="G16" s="12"/>
@@ -2824,10 +2830,10 @@
         <v>153</v>
       </c>
       <c r="C17" s="26" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="D17" s="27" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="E17" s="28" t="s">
         <v>198</v>
@@ -2843,10 +2849,10 @@
         <v>158</v>
       </c>
       <c r="C18" s="26" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="D18" s="27" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="E18" s="28" t="s">
         <v>203</v>
@@ -2862,7 +2868,7 @@
         <v>163</v>
       </c>
       <c r="C19" s="26" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="D19" s="27" t="s">
         <v>198</v>
@@ -2881,7 +2887,7 @@
         <v>167</v>
       </c>
       <c r="C20" s="26" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="D20" s="27" t="s">
         <v>270</v>
@@ -2900,10 +2906,10 @@
         <v>170</v>
       </c>
       <c r="C21" s="26" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="D21" s="27" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="E21" s="28" t="s">
         <v>276</v>
@@ -2919,7 +2925,7 @@
         <v>174</v>
       </c>
       <c r="C22" s="26" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="D22" s="27" t="s">
         <v>203</v>
@@ -2938,13 +2944,13 @@
         <v>179</v>
       </c>
       <c r="C23" s="26" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="D23" s="27" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="E23" s="28" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="F23"/>
       <c r="G23" s="12"/>
@@ -2957,7 +2963,7 @@
         <v>184</v>
       </c>
       <c r="C24" s="26" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="D24" s="27" t="s">
         <v>181</v>
@@ -2976,13 +2982,13 @@
         <v>187</v>
       </c>
       <c r="C25" s="26" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="D25" s="27" t="s">
         <v>271</v>
       </c>
       <c r="E25" s="28" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="F25"/>
       <c r="G25" s="12"/>
@@ -2995,13 +3001,13 @@
         <v>191</v>
       </c>
       <c r="C26" s="26" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="D26" s="27" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="E26" s="28" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="F26"/>
       <c r="G26" s="12"/>
@@ -3014,7 +3020,7 @@
         <v>196</v>
       </c>
       <c r="C27" s="26" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="D27" s="27" t="s">
         <v>198</v>
@@ -3033,7 +3039,7 @@
         <v>201</v>
       </c>
       <c r="C28" s="26" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="D28" s="27" t="s">
         <v>203</v>
@@ -3052,7 +3058,7 @@
         <v>206</v>
       </c>
       <c r="C29" s="26" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="D29" s="27" t="s">
         <v>160</v>
@@ -3071,13 +3077,13 @@
         <v>210</v>
       </c>
       <c r="C30" s="26" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="D30" s="27" t="s">
         <v>119</v>
       </c>
       <c r="E30" s="28" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="F30"/>
       <c r="G30" s="12"/>
@@ -3090,7 +3096,7 @@
         <v>214</v>
       </c>
       <c r="C31" s="26" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="D31" s="27" t="s">
         <v>156</v>
@@ -3109,10 +3115,10 @@
         <v>217</v>
       </c>
       <c r="C32" s="26" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="D32" s="27" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="E32" s="28" t="s">
         <v>270</v>
@@ -3128,13 +3134,13 @@
         <v>220</v>
       </c>
       <c r="C33" s="26" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="D33" s="27" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="E33" s="28" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="F33"/>
       <c r="G33" s="12"/>
@@ -3147,7 +3153,7 @@
         <v>225</v>
       </c>
       <c r="C34" s="26" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="D34" s="27" t="s">
         <v>273</v>
@@ -3166,7 +3172,7 @@
         <v>228</v>
       </c>
       <c r="C35" s="26" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="D35" s="27" t="s">
         <v>182</v>
@@ -3185,7 +3191,7 @@
         <v>232</v>
       </c>
       <c r="C36" s="26" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="D36" s="27" t="s">
         <v>142</v>
@@ -3204,7 +3210,7 @@
         <v>235</v>
       </c>
       <c r="C37" s="26" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="D37" s="27" t="s">
         <v>237</v>
@@ -3223,7 +3229,7 @@
         <v>240</v>
       </c>
       <c r="C38" s="26" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="D38" s="27" t="s">
         <v>237</v>
@@ -3242,7 +3248,7 @@
         <v>245</v>
       </c>
       <c r="C39" s="26" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="D39" s="27" t="s">
         <v>242</v>
@@ -3261,13 +3267,13 @@
         <v>250</v>
       </c>
       <c r="C40" s="26" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="D40" s="27" t="s">
         <v>119</v>
       </c>
       <c r="E40" s="28" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="F40"/>
       <c r="G40" s="12"/>
@@ -3280,13 +3286,13 @@
         <v>253</v>
       </c>
       <c r="C41" s="26" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="D41" s="27" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="E41" s="28" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="F41"/>
       <c r="G41" s="12"/>
@@ -3318,7 +3324,7 @@
         <v>260</v>
       </c>
       <c r="C43" s="32" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="D43" s="33" t="s">
         <v>142</v>
@@ -3597,9 +3603,9 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CA5BA948-10DE-4C89-9B1C-0BA565A5462C}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E002CD26-7F52-4ADC-A964-C8E55FE7A9CA}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2BE6E358-BAF0-4927-89C5-3CC1AE4733AE}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{24374C23-C899-4DAC-A7F7-CFCA71EE43E2}"/>
 </file>